--- a/public/templates/travel_order_template.xlsx
+++ b/public/templates/travel_order_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F4FB8-FBC3-44FA-BA3D-2F1A664979B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A9A9C-6616-4A7E-8177-32038D1D9DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9215396B-139B-4A7F-BC50-F3B64F0A8DA3}"/>
   </bookViews>
@@ -221,15 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,6 +231,15 @@
       <b/>
       <i/>
       <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,10 +448,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,104 +559,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,85 +963,85 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1057,19 +1061,19 @@
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1081,11 +1085,11 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1093,16 +1097,16 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1110,26 +1114,26 @@
       <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1169,32 +1173,36 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1207,18 +1215,18 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1226,10 +1234,10 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1237,10 +1245,10 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1248,10 +1256,10 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1259,14 +1267,14 @@
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1279,25 +1287,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="54"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="13" t="s">
         <v>11</v>
       </c>
@@ -1315,10 +1323,10 @@
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="41"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="12" t="s">
         <v>8</v>
       </c>
@@ -1327,107 +1335,107 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="19"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="48"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="20"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="30"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="60"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="20"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="18"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="30"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="20"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="30"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="20"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="20"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="5"/>
@@ -1435,15 +1443,15 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="21"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="5"/>
@@ -1453,10 +1461,10 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="62"/>
+      <c r="J39" s="29"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -1471,10 +1479,10 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -1482,10 +1490,10 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -1493,34 +1501,38 @@
       <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="63" t="s">
+      <c r="G43" s="64" t="s">
         <v>1</v>
       </c>
+      <c r="H43" s="65"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="63"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -1545,25 +1557,29 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H17:K18"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="I30:J30"/>
@@ -1579,27 +1595,23 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I45:L45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
